--- a/export/bom/bom.xlsx
+++ b/export/bom/bom.xlsx
@@ -74,7 +74,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-11-26_01-18-27</t>
+    <t>2023-11-26_01-28-24</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/export/bom/bom.xlsx
+++ b/export/bom/bom.xlsx
@@ -74,7 +74,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-11-26_01-28-24</t>
+    <t>2023-11-26_01-35-19</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/export/bom/bom.xlsx
+++ b/export/bom/bom.xlsx
@@ -74,7 +74,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-11-26_01-35-19</t>
+    <t>2023-11-27_21-36-03</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/export/bom/bom.xlsx
+++ b/export/bom/bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Row</t>
   </si>
@@ -44,15 +44,18 @@
     <t>1</t>
   </si>
   <si>
-    <t>PS1</t>
-  </si>
-  <si>
-    <t>Polulu-S13V30F5</t>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>RaspberryPi-Pico</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>RaspberryPiPico-THT-Dev</t>
+  </si>
+  <si>
     <t>KiBot variants example</t>
   </si>
   <si>
@@ -74,7 +77,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-11-27_21-36-03</t>
+    <t>2023-11-28_01-22-28</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -571,12 +574,12 @@
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -585,13 +588,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -599,13 +602,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -613,13 +616,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -627,13 +630,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -641,13 +644,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -696,7 +699,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -722,17 +725,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
